--- a/数据整理/stocks/A股/创业板/300003-乐普医疗.xlsx
+++ b/数据整理/stocks/A股/创业板/300003-乐普医疗.xlsx
@@ -451,743 +451,1003 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>960014</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富民营活力混合型证券投资基金 O</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>54.13</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.76</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.2680</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>470009</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富民营活力混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>54.13</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.76</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.2680</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>450003</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富兰克林国海潜力组合混合A 人民币</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>30.85</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.92</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.3882</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>960021</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富兰克林国海潜力组合混合H 人民币</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>30.85</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.92</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.3882</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>257020</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国联安精选混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>14.30</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.96</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.98</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.1411</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005358</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>东方阿尔法精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>14.48</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.62</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.9586</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>512170</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华宝中证医疗ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>12.82</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>98.94</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4128</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>162412</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华宝中证医疗指数</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>9.46</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2895</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>000059</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国联安中证医药100指数A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>13.53</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.64</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2368</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
           <t>450001</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>国富中国收益混合</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>64.26</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>3.49</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2171</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>450003</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>富兰克林国海潜力组合混合A 人民币</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>93.92</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>4.50</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005359</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>东方阿尔法精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.62</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1059</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>000417</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>国联安新精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>33.24</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0814</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>502056</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>广发中证医疗指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0511</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>501007</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>汇添富中证互联网医疗主题指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0418</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009881</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>广发中证医疗指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0223</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001730</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>兴银大健康灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.13</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0209</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
         <v>7</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>960014</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>汇添富民营活力混合型证券投资基金 O</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>94.76</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>4.19</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>005955</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>易方达鑫转添利混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>29.82</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0183</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>001563</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华富健康文娱灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>91.42</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>005088</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>嘉实新添辉定期开放灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>42.11</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0101</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
         <v>8</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>501008</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>汇添富中证互联网医疗主题指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0085</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>010434</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>红土创新医疗保健股票</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>50.44</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>410006</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华富策略精选混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>71.84</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>005956</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>易方达鑫转添利混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>29.82</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
         <is>
           <t>006569</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C25" t="inlineStr">
         <is>
           <t>国联安中证医药100指数C</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
         <is>
           <t>92.64</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>1.75</t>
         </is>
       </c>
-      <c r="F5" t="n">
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
         <v>6</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>009881</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>广发中证医疗指数（LOF）C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>93.47</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>3.06</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>005089</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>嘉实新添辉定期开放灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>42.11</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
         <v>8</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>010434</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>红土创新医疗保健股票</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>50.44</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>3.59</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>512170</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>华宝中证医疗ETF</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>98.94</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>3.22</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>470009</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>汇添富民营活力混合A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>94.76</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>4.19</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>257020</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>国联安精选混合</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>90.96</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>7.98</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>162412</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>华宝中证医疗指数</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>94.23</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>3.06</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>502056</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>广发中证医疗指数（LOF）A</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>93.47</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>3.06</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>000417</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>国联安新精选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>33.24</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>410006</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>华富策略精选混合</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>71.84</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>2.97</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>501007</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>汇添富中证互联网医疗主题指数（LOF）A</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>94.26</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>4.98</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>501008</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>汇添富中证互联网医疗主题指数（LOF）C</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>94.26</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>4.98</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>005955</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>易方达鑫转添利混合A</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>29.82</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>2.51</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>005956</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>易方达鑫转添利混合C</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>29.82</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>2.51</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>001563</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>华富健康文娱灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>91.42</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>3.87</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>000059</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>国联安中证医药100指数A</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>92.64</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>1.75</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>001730</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>兴银大健康灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>92.13</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>4.65</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>960021</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>富兰克林国海潜力组合混合H 人民币</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>93.92</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>4.50</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>005358</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>东方阿尔法精选灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>94.67</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>6.62</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>005359</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>东方阿尔法精选灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>94.67</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>6.62</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>005088</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>嘉实新添辉定期开放灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>42.11</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>1.68</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>005089</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>嘉实新添辉定期开放灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>42.11</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>1.68</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
-        <v>8</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -1197,7 +1457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1218,15 +1478,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -1238,26 +1508,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>501007</t>
+          <t>470009</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>汇添富中证互联网医疗主题指数（LOF）A</t>
+          <t>汇添富民营活力混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>94.68</t>
+          <t>42.83</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>4.87</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>10</v>
+          <t>85.86</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.4970</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -1266,26 +1546,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>501008</t>
+          <t>257020</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>汇添富中证互联网医疗主题指数（LOF）C</t>
+          <t>国联安精选混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>94.68</t>
+          <t>12.58</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>4.87</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>10</v>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.67</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.2165</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -1294,26 +1584,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>000059</t>
+          <t>006864</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>国联安中证医药100指数A</t>
+          <t>国联安核心资产策略混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>93.75</t>
+          <t>8.59</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1.68</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>6</v>
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.72</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8349</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -1322,26 +1622,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>006569</t>
+          <t>512170</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>国联安中证医药100指数C</t>
+          <t>华宝中证医疗ETF</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>93.75</t>
+          <t>19.56</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1.68</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>6</v>
+          <t>98.74</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7081</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -1350,26 +1660,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>000458</t>
+          <t>162412</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>英大领先回报混合</t>
+          <t>华宝中证医疗指数</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>92.41</t>
+          <t>18.22</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2.54</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>10</v>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.6268</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -1378,26 +1698,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>257020</t>
+          <t>159966</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>国联安精选混合</t>
+          <t>华夏创业板低波蓝筹ETF</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>93.81</t>
+          <t>11.35</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>9.67</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>1</v>
+          <t>99.05</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3360</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="8">
@@ -1406,26 +1736,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>000757</t>
+          <t>159828</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>华富智慧城市灵活配置混合</t>
+          <t>国泰中证医疗ETF</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>90.74</t>
+          <t>7.35</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>4.97</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>2</v>
+          <t>98.42</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2609</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="9">
@@ -1434,26 +1774,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>470009</t>
+          <t>000059</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>汇添富民营活力混合A</t>
+          <t>国联安中证医药100指数A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>85.86</t>
+          <t>13.01</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>5.83</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>2</v>
+          <t>93.75</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2186</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="10">
@@ -1462,26 +1812,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>960014</t>
+          <t>009507</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>汇添富民营活力混合型证券投资基金 O</t>
+          <t>国金鑫意医药消费混合A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>85.86</t>
+          <t>2.88</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>5.83</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>2</v>
+          <t>85.36</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1348</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="11">
@@ -1490,26 +1850,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>006864</t>
+          <t>502056</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>国联安核心资产策略混合</t>
+          <t>广发中证医疗指数（LOF）A</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>93.59</t>
+          <t>3.51</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>9.72</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>2</v>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1232</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="12">
@@ -1518,25 +1888,35 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>502056</t>
+          <t>515860</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>广发中证医疗指数（LOF）A</t>
+          <t>嘉实中证新兴科技100策略ETF</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>94.34</t>
+          <t>3.64</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>3.51</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
+          <t>99.33</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0852</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
         <v>7</v>
       </c>
     </row>
@@ -1546,26 +1926,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>009881</t>
+          <t>002384</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>广发中证医疗指数（LOF）C</t>
+          <t>九泰鸿祥服务升级灵活配置混合</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>94.34</t>
+          <t>1.52</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>3.51</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>7</v>
+          <t>91.30</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0821</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="14">
@@ -1574,26 +1964,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>001270</t>
+          <t>009508</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>英大灵活配置混合A</t>
+          <t>国金鑫意医药消费混合C</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>93.33</t>
+          <t>1.07</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2.38</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>9</v>
+          <t>85.36</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0501</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="15">
@@ -1602,26 +2002,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>001271</t>
+          <t>501007</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>英大灵活配置混合B</t>
+          <t>汇添富中证互联网医疗主题指数（LOF）A</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>93.33</t>
+          <t>0.67</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2.38</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>9</v>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0326</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="16">
@@ -1630,26 +2040,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>512170</t>
+          <t>000757</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>华宝中证医疗ETF</t>
+          <t>华富智慧城市灵活配置混合</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>98.74</t>
+          <t>0.53</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>3.62</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>7</v>
+          <t>90.74</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0263</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="17">
@@ -1658,25 +2078,35 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>515860</t>
+          <t>009881</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>嘉实中证新兴科技100策略ETF</t>
+          <t>广发中证医疗指数（LOF）C</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>99.33</t>
+          <t>0.73</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2.34</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0256</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
         <v>7</v>
       </c>
     </row>
@@ -1686,26 +2116,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>515960</t>
+          <t>001730</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>嘉实中证医药健康100策略ETF</t>
+          <t>兴银大健康灵活配置混合</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>98.99</t>
+          <t>0.32</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2.04</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>10</v>
+          <t>90.85</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>6.03</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0193</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="19">
@@ -1714,26 +2154,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>001563</t>
+          <t>000458</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>华富健康文娱灵活配置混合</t>
+          <t>英大领先回报混合</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>89.81</t>
+          <t>0.68</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>4.82</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>3</v>
+          <t>92.41</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0173</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="20">
@@ -1742,26 +2192,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>159828</t>
+          <t>515960</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>国泰中证医疗ETF</t>
+          <t>嘉实中证医药健康100策略ETF</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>98.42</t>
+          <t>0.79</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>3.55</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>7</v>
+          <t>98.99</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0161</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="21">
@@ -1770,26 +2230,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>001730</t>
+          <t>001270</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>兴银大健康灵活配置混合</t>
+          <t>英大灵活配置混合A</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>90.85</t>
+          <t>0.47</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>6.03</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>3</v>
+          <t>93.33</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0112</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="22">
@@ -1798,25 +2268,35 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>159966</t>
+          <t>001271</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>华夏创业板低波蓝筹ETF</t>
+          <t>英大灵活配置混合B</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>99.05</t>
+          <t>0.46</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2.96</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
+          <t>93.33</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0109</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
         <v>9</v>
       </c>
     </row>
@@ -1826,25 +2306,35 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>002384</t>
+          <t>005088</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>九泰鸿祥服务升级灵活配置混合</t>
+          <t>嘉实新添辉定期开放灵活配置混合A</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>91.30</t>
+          <t>0.59</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>5.40</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
+          <t>39.24</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0107</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
         <v>8</v>
       </c>
     </row>
@@ -1854,26 +2344,36 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>162412</t>
+          <t>501008</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>华宝中证医疗指数</t>
+          <t>汇添富中证互联网医疗主题指数（LOF）C</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>94.13</t>
+          <t>0.17</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>3.44</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>7</v>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="25">
@@ -1882,26 +2382,36 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>005088</t>
+          <t>001563</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>嘉实新添辉定期开放灵活配置混合A</t>
+          <t>华富健康文娱灵活配置混合</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>39.24</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>1.82</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
-        <v>8</v>
+          <t>89.81</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="26">
@@ -1910,26 +2420,36 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>005089</t>
+          <t>006569</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>嘉实新添辉定期开放灵活配置混合C</t>
+          <t>国联安中证医药100指数C</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>39.24</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>1.82</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
-        <v>8</v>
+          <t>93.75</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="27">
@@ -1938,25 +2458,35 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>009507</t>
+          <t>005089</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>国金鑫意医药消费混合A</t>
+          <t>嘉实新添辉定期开放灵活配置混合C</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>85.36</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>4.68</t>
-        </is>
-      </c>
-      <c r="F27" t="n">
+          <t>39.24</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
         <v>8</v>
       </c>
     </row>
@@ -1966,26 +2496,30 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>009508</t>
+          <t>960014</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>国金鑫意医药消费混合C</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>85.36</t>
-        </is>
-      </c>
+          <t>汇添富民营活力混合型证券投资基金 O</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr">
         <is>
-          <t>4.68</t>
-        </is>
-      </c>
-      <c r="F28" t="n">
-        <v>8</v>
+          <t>85.86</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/创业板/300003-乐普医疗.xlsx
+++ b/数据整理/stocks/A股/创业板/300003-乐普医疗.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2504,7 +2505,6 @@
           <t>汇添富民营活力混合型证券投资基金 O</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr">
         <is>
           <t>85.86</t>
@@ -2520,6 +2520,1656 @@
       </c>
       <c r="H28" t="n">
         <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H43"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>470009</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富民营活力混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>36.22</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.89</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.41</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.6839</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>011401</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富成长精选混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>68.53</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>86.90</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.9668</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>512170</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华宝中证医疗ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>57.03</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>98.45</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.6938</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>450003</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富兰克林国海潜力组合混合A 人民币</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>31.96</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.4062</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>960021</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富兰克林国海潜力组合混合H 人民币</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>31.96</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.4062</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>257020</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国联安精选混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>14.00</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>9.18</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.2852</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>006864</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国联安核心资产策略混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>8.42</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.42</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>9.53</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.8024</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010271</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>富兰克林国海价值成长一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>12.68</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.5338</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>450001</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国富中国收益混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>12.18</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>63.07</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4689</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009898</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>民生加银医药健康股票</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>86.83</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2570</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>450011</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国富研究精选混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.36</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2179</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010272</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>富兰克林国海价值成长一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1996</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009114</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>鹏扬景泓回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.47</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1887</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>502056</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>广发中证医疗指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.63</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1491</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009840</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>西藏东财量化精选混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.52</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1450</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>159828</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>国泰中证医疗ETF</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>97.58</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1353</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>009507</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>国金鑫意医药消费混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>84.94</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1200</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>159883</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>永赢中证全指医疗器械交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>97.77</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1195</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>002384</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>九泰鸿祥服务升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>89.83</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0923</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>011402</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>汇添富成长精选混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>86.90</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0781</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>515860</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>嘉实中证新兴科技100策略ETF</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>99.33</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0750</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>010465</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>鹏扬景创混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>42.70</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0469</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>009841</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>西藏东财量化精选混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.52</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0453</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>009508</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>国金鑫意医药消费混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>84.94</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0445</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>515960</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>嘉实中证医药健康100策略ETF</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>99.09</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0350</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>501007</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>汇添富中证互联网医疗主题指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0319</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>009115</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>鹏扬景泓回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>92.47</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0296</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>009881</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>广发中证医疗指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>94.63</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0294</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>450007</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>国富成长动力混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>79.33</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0227</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>000757</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>华富智慧城市灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0227</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>516610</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>大成中证全指医疗保健设备与服务交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>84.84</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0167</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>159873</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>天弘中证全指医疗保健设备与服务ETF</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>97.32</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0164</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>010466</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>鹏扬景创混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>42.70</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0144</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>005088</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>嘉实新添辉定期开放灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>37.61</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0118</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>001730</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>兴银大健康灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>91.25</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0117</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>501008</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>汇添富中证互联网医疗主题指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0085</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>008154</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>嘉实中证医药健康100策略ETF联接A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>26.89</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>008155</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>嘉实中证医药健康100策略ETF联接C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>26.89</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>010434</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>红土创新医疗保健股票</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>81.04</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>001563</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>华富健康文娱灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>90.19</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>005089</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>嘉实新添辉定期开放灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>37.61</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>960014</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>汇添富民营活力混合型证券投资基金 O</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>90.89</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>7.41</t>
+        </is>
+      </c>
+      <c r="G43" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/创业板/300003-乐普医疗.xlsx
+++ b/数据整理/stocks/A股/创业板/300003-乐普医疗.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4175,4 +4176,1388 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>512170</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华宝中证医疗ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>96.60</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>98.89</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.9463</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>470009</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富民营活力混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>31.92</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.56</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.02</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.2408</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009863</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国创新趋势股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>74.66</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.02</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.1950</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011401</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇添富成长精选混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>58.05</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.40</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.8576</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>100060</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富国高新技术产业混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>42.33</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.35</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.2318</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>257020</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国联安精选混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>10.42</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.38</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4824</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>006864</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国联安核心资产策略混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>7.13</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.83</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3216</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>502056</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>广发中证医疗指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>9.75</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2857</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>012010</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>富国泰享回报6个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>21.42</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>24.25</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2613</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>159883</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>永赢中证全指医疗器械交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>98.90</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2585</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>159828</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国泰中证医疗ETF</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>8.23</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>99.22</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2535</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009898</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>民生加银医药健康股票</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>83.73</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1598</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>159898</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>招商中证全指医疗器械交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>98.82</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.18</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1032</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>002384</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>九泰鸿祥服务升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>91.02</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0873</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009881</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>广发中证医疗指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0803</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011402</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>汇添富成长精选混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.40</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0736</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>166802</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>浙商沪深 300 指数增强（LOF）</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>90.43</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0669</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>159847</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>易方达中证医疗交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>98.69</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0584</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>515960</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>嘉实中证医药健康100策略ETF</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>99.12</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0557</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>515860</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>嘉实中证新兴科技100策略ETF</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>99.21</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0541</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>159891</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>建信中证全指医疗保健设备与服务交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>97.62</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0494</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>159906</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>大成深证成长40ETF</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>96.06</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0320</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>516610</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>大成中证全指医疗保健设备与服务交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.69</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0296</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>159873</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>天弘中证全指医疗保健设备与服务ETF</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>98.58</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0277</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>012326</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>天弘中证全指医疗保健设备与服务指数型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>90.32</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0205</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>000757</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>华富智慧城市灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>88.87</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0190</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>010657</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>海富通欣睿混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>26.74</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0154</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>012327</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>天弘中证全指医疗保健设备与服务指数型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>90.32</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0142</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>010658</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>海富通欣睿混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>26.74</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0107</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>010434</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>红土创新医疗保健股票</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>89.07</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>001563</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>华富健康文娱灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>92.80</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>012011</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>富国泰享回报6个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>24.25</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>008342</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>九泰科鑫策略精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>57.74</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>008343</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>九泰科鑫策略精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>57.74</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>960014</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>汇添富民营活力混合型证券投资基金 O</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>93.56</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>7.02</t>
+        </is>
+      </c>
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300003-乐普医疗.xlsx
+++ b/数据整理/stocks/A股/创业板/300003-乐普医疗.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5560,4 +5561,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>35</v>
+      </c>
+      <c r="D2" t="n">
+        <v>13.31</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>42</v>
+      </c>
+      <c r="D3" t="n">
+        <v>14.44</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>27</v>
+      </c>
+      <c r="D4" t="n">
+        <v>7.36</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>25</v>
+      </c>
+      <c r="D5" t="n">
+        <v>10.95</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300003-乐普医疗.xlsx
+++ b/数据整理/stocks/A股/创业板/300003-乐普医疗.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5569,7 +5570,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5580,17 +5581,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -5600,14 +5621,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>35</v>
-      </c>
-      <c r="D2" t="n">
-        <v>13.31</v>
+          <t>470009</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富民营活力混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>32.01</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.38</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.0422</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -5616,14 +5659,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>42</v>
-      </c>
-      <c r="D3" t="n">
-        <v>14.44</v>
+          <t>012010</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国泰享回报6个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>21.42</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>28.02</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2892</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -5632,14 +5697,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>27</v>
-      </c>
-      <c r="D4" t="n">
-        <v>7.36</v>
+          <t>159883</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>永赢中证全指医疗器械交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>7.56</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.96</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2714</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -5648,13 +5735,377 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>159898</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>招商中证全指医疗器械交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>98.57</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1169</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>159891</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>建信中证全指医疗保健设备与服务交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>98.47</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0753</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>002384</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>九泰鸿祥服务升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.85</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0737</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>159873</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>天弘中证全指医疗保健设备与服务ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>99.45</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0682</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>516610</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>大成中证全指医疗保健设备与服务交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>96.32</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0263</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>012011</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>富国泰享回报6个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>28.02</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>960014</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>汇添富民营活力混合型证券投资基金 O</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.38</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>10</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.97</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>35</v>
+      </c>
+      <c r="D3" t="n">
+        <v>13.31</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>42</v>
+      </c>
+      <c r="D4" t="n">
+        <v>14.44</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>27</v>
+      </c>
+      <c r="D5" t="n">
+        <v>7.36</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>25</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>10.95</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300003-乐普医疗.xlsx
+++ b/数据整理/stocks/A股/创业板/300003-乐普医疗.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -6004,7 +6005,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6015,17 +6016,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -6035,14 +6056,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>10</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.97</v>
+          <t>011164</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国兴远优选12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>84.49</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>82.18</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.8159</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -6051,14 +6094,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>35</v>
-      </c>
-      <c r="D3" t="n">
-        <v>13.31</v>
+          <t>011401</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富成长精选混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>42.03</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.99</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.8073</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -6067,14 +6132,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>42</v>
-      </c>
-      <c r="D4" t="n">
-        <v>14.44</v>
+          <t>470009</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇添富民营活力混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>25.42</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.81</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.97</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.7718</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -6083,14 +6170,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>27</v>
-      </c>
-      <c r="D5" t="n">
-        <v>7.36</v>
+          <t>001186</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国文体健康股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>18.44</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>86.61</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.27</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.1562</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -6099,13 +6208,621 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>011165</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富国兴远优选12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>18.89</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>82.18</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.0767</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>159883</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>永赢中证全指医疗器械交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>9.17</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>99.23</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3466</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>012010</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富国泰享回报6个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>9.29</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>29.91</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0855</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011402</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>汇添富成长精选混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>87.99</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0710</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>159898</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>招商中证全指医疗器械交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>99.41</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0605</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>159873</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>天弘中证全指医疗保健设备与服务ETF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>99.59</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0469</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011125</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>富国文体健康股票C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>86.61</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.27</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0445</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>159891</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>建信中证全指医疗保健设备与服务交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>95.24</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0445</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>501007</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>汇添富中证互联网医疗主题指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0290</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>516610</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>大成中证全指医疗保健设备与服务交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>96.20</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0225</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>501008</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>汇添富中证互联网医疗主题指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0095</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>012011</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>富国泰享回报6个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>29.91</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>960014</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>汇添富民营活力混合型证券投资基金 O</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>88.81</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>6.97</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>17</v>
+      </c>
+      <c r="D2" t="n">
+        <v>11.39</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>10</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.97</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>35</v>
+      </c>
+      <c r="D4" t="n">
+        <v>13.31</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>42</v>
+      </c>
+      <c r="D5" t="n">
+        <v>14.44</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>27</v>
+      </c>
+      <c r="D6" t="n">
+        <v>7.36</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>25</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>10.95</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300003-乐普医疗.xlsx
+++ b/数据整理/stocks/A股/创业板/300003-乐普医疗.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -6705,7 +6706,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6716,17 +6717,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -6736,14 +6757,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>17</v>
-      </c>
-      <c r="D2" t="n">
-        <v>11.39</v>
+          <t>011401</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富成长精选混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>42.78</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>86.27</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.6641</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -6752,14 +6795,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>10</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.97</v>
+          <t>470009</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富民营活力混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>27.23</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.27</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.3343</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -6768,14 +6833,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>35</v>
-      </c>
-      <c r="D4" t="n">
-        <v>13.31</v>
+          <t>159883</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>永赢中证全指医疗器械交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>8.81</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>98.49</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2819</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -6784,14 +6871,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>42</v>
-      </c>
-      <c r="D5" t="n">
-        <v>14.44</v>
+          <t>011501</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>方正富邦汇福一年定期开放灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>37.26</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0728</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -6800,14 +6909,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>27</v>
-      </c>
-      <c r="D6" t="n">
-        <v>7.36</v>
+          <t>011402</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>汇添富成长精选混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>86.27</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0646</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -6816,13 +6947,561 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>008602</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>方正富邦新兴成长混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>71.10</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0557</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>159898</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>招商中证全指医疗器械交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>99.36</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0469</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>159873</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>天弘中证全指医疗保健设备与服务ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>99.54</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0385</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>159891</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>建信中证全指医疗保健设备与服务交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>99.03</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0378</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>159877</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>南方中证全指医疗保健ETF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>99.46</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0326</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>501007</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>汇添富中证互联网医疗主题指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0298</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>516610</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>大成中证全指医疗保健设备与服务交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>95.61</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0193</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>501008</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>汇添富中证互联网医疗主题指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0098</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011502</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>方正富邦汇福一年定期开放灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>37.26</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>008603</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>方正富邦新兴成长混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>71.10</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>960014</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>汇添富民营活力混合型证券投资基金 O</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>89.27</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>16</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.69</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>17</v>
+      </c>
+      <c r="D3" t="n">
+        <v>11.39</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>10</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.97</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>35</v>
+      </c>
+      <c r="D5" t="n">
+        <v>13.31</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>42</v>
+      </c>
+      <c r="D6" t="n">
+        <v>14.44</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>27</v>
+      </c>
+      <c r="D7" t="n">
+        <v>7.36</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>25</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>10.95</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300003-乐普医疗.xlsx
+++ b/数据整理/stocks/A股/创业板/300003-乐普医疗.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="D2" t="n">
-        <v>3.69</v>
+        <v>11.27</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D3" t="n">
-        <v>11.39</v>
+        <v>3.69</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D4" t="n">
-        <v>2.97</v>
+        <v>11.39</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="D5" t="n">
-        <v>13.31</v>
+        <v>2.97</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="D6" t="n">
-        <v>14.44</v>
+        <v>13.31</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="D7" t="n">
-        <v>7.36</v>
+        <v>14.44</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>27</v>
+      </c>
+      <c r="D8" t="n">
+        <v>7.36</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>25</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>10.95</v>
       </c>
     </row>
@@ -600,6 +617,2032 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H53"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>512170</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华宝中证医疗ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>157.90</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>98.90</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.5002</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>470009</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富民营活力混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>24.14</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.04</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.24</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.7477</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001417</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇添富医疗服务灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>32.06</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>85.81</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.0259</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>159828</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国泰中证医疗ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>17.27</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>99.54</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5026</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>159883</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>永赢中证全指医疗器械ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>10.67</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>98.26</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4396</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>166027</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中欧创业板两年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>8.11</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>99.40</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4031</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010654</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>天弘医药创新混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>7.39</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>82.96</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3289</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009881</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>广发中证医疗指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>10.51</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>95.73</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2932</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>502056</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>广发中证医疗指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>9.62</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>95.73</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2684</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>450010</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国富策略回报混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>7.85</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>79.43</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1499</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010655</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>天弘医药创新混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>82.96</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1460</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009791</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中欧创业板两年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>99.40</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1397</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>900009</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中信证券成长动力混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>88.73</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1067</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>008308</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华夏见龙精选混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>90.35</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1048</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>159847</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>易方达中证医疗ETF</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>98.97</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0921</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>002938</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中银证券健康产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.72</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0921</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>014922</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华夏ESG可持续投资一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>87.43</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0777</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>000974</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>安信消费医药主题股票</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>81.13</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0767</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>006981</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中金新医药股票A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.00</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0645</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>159873</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>天弘中证全指医疗保健设备与服务ETF</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>99.90</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0582</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>005112</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>银华中证全指医药卫生指数增强</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>90.85</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0578</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>516790</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证全指医疗保健ETF</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>97.64</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0578</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>515960</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>嘉实中证医药健康100策略ETF</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>98.86</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0562</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>159898</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>招商中证全指医疗器械ETF</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>99.00</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0552</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>159877</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>南方中证全指医疗保健ETF</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>99.67</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0482</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>159891</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>建信中证全指医疗保健设备与服务ETF</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>99.37</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0458</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>001695</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>泓德泓业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>89.73</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0438</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>014603</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>嘉实中证医疗指数C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0410</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>516610</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>大成中证全指医疗保健设备与服务ETF</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>96.59</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0281</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>164401</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>前海开源中证健康产业指数</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0223</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>159797</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>汇添富中证全指医疗器械ETF</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>94.87</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0221</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>009606</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>长信稳健精选混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>27.87</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0210</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>501007</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>汇添富中证互联网医疗主题指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>94.69</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0207</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>000059</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>国联安中证医药100指数A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>92.19</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0206</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>007005</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>中金新医药股票C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>92.00</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0153</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>007133</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>嘉实长青竞争优势股票A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>90.21</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0141</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>900059</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>中信证券成长动力混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>88.73</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0138</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>012430</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>农银汇理瑞康6个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>24.44</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0127</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>009607</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>长信稳健精选混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>27.87</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0107</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>014157</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>国泰君安创新医药混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>79.28</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0106</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>501008</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>汇添富中证互联网医疗主题指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>94.69</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>014923</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>华夏ESG可持续投资一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>87.43</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>014602</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>嘉实中证医疗指数A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>006569</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>国联安中证医药100指数C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>92.19</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>006818</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>安信盈利驱动股票A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>83.15</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>006819</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>安信盈利驱动股票C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>83.15</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>007134</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>嘉实长青竞争优势股票C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>90.21</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>006231</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>国融融君灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>55.44</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>015121</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>汇添富医疗服务灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>85.81</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>960014</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>汇添富民营活力混合 O</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>90.04</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>7.24</t>
+        </is>
+      </c>
+      <c r="G51" t="n">
+        <v>0</v>
+      </c>
+      <c r="H51" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>015122</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>汇添富医疗服务灵活配置混合D</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>85.81</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G52" t="n">
+        <v>0</v>
+      </c>
+      <c r="H52" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>006232</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>国融融君灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>55.44</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G53" t="n">
+        <v>0</v>
+      </c>
+      <c r="H53" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1261,7 +3304,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1961,7 +4004,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2395,7 +4438,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3779,7 +5822,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5429,7 +7472,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6504,7 +8547,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/创业板/300003-乐普医疗.xlsx
+++ b/数据整理/stocks/A股/创业板/300003-乐普医疗.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="D2" t="n">
-        <v>11.27</v>
+        <v>16.44</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="D3" t="n">
-        <v>3.69</v>
+        <v>11.27</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D4" t="n">
-        <v>11.39</v>
+        <v>3.69</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D5" t="n">
-        <v>2.97</v>
+        <v>11.39</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="D6" t="n">
-        <v>13.31</v>
+        <v>2.97</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="D7" t="n">
-        <v>14.44</v>
+        <v>13.31</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="D8" t="n">
-        <v>7.36</v>
+        <v>14.44</v>
       </c>
     </row>
     <row r="9">
@@ -601,14 +602,1036 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>27</v>
+      </c>
+      <c r="D9" t="n">
+        <v>7.36</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>25</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>10.95</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>960014</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富民营活力混合型证券投资基金 O</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>54.13</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.76</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.2680</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>470009</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富民营活力混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>54.13</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.76</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.2680</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>450003</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富兰克林国海潜力组合混合A 人民币</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>30.85</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.92</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.3882</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>960021</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富兰克林国海潜力组合混合H 人民币</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>30.85</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.92</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.3882</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>257020</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国联安精选混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>14.30</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.96</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.98</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.1411</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005358</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>东方阿尔法精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>14.48</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.62</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.9586</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>512170</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华宝中证医疗ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>12.82</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>98.94</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4128</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>162412</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华宝中证医疗指数</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>9.46</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2895</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>000059</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国联安中证医药100指数A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>13.53</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.64</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2368</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>450001</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国富中国收益混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>64.26</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2171</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005359</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>东方阿尔法精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.62</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1059</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>000417</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>国联安新精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>33.24</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0814</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>502056</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>广发中证医疗指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0511</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>501007</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>汇添富中证互联网医疗主题指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0418</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009881</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>广发中证医疗指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0223</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001730</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>兴银大健康灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.13</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0209</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>005955</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>易方达鑫转添利混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>29.82</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0183</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>001563</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华富健康文娱灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>91.42</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>005088</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>嘉实新添辉定期开放灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>42.11</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0101</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>501008</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>汇添富中证互联网医疗主题指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0085</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>010434</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>红土创新医疗保健股票</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>50.44</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>410006</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华富策略精选混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>71.84</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>005956</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>易方达鑫转添利混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>29.82</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>006569</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>国联安中证医药100指数C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>92.64</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>005089</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>嘉实新添辉定期开放灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>42.11</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -617,6 +1640,3136 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H82"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>512170</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华宝中证医疗ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>174.19</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.07</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.0167</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>510500</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>南方中证500ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>603.45</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>97.78</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.8362</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>470009</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇添富民营活力混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>24.48</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.58</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.8556</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>159883</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>永赢中证全指医疗器械ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>22.83</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>99.25</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.0433</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011401</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>汇添富成长精选混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>31.60</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>86.37</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.8500</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>000612</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华宝生态中国混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>13.86</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.08</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5350</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>159828</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国泰中证医疗ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>18.21</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>99.38</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5208</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>159922</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>嘉实中证500ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>82.55</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>99.02</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3880</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>166027</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中欧创业板两年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>9.45</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>95.10</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3582</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>502056</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>广发中证医疗指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>10.38</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.99</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2854</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009881</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>广发中证医疗指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>9.77</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.99</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2687</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>512500</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华夏中证500ETF</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>41.77</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>98.64</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1963</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>016462</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华宝生态中国混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.08</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1621</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>510510</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>广发中证500ETF</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>28.52</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>99.04</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1340</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009791</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中欧创业板两年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>95.10</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1236</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>008308</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华夏见龙精选混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.17</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1138</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>159820</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>天弘中证500ETF</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>23.34</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>95.66</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1050</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>159847</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>易方达中证医疗ETF</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>98.99</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0970</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>510580</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>易方达中证500ETF</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>20.47</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>95.14</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0921</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>006981</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>中金新医药股票A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.07</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0849</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>014922</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华夏ESG可持续投资一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>90.74</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0843</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>011743</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华夏兴源稳健一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>8.78</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>22.90</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0834</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>001695</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>泓德泓业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>90.00</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0727</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>002076</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>浙商中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>6.56</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>87.04</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0715</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>159873</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>天弘中证全指医疗保健设备与服务ETF</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>99.12</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0711</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>159898</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>招商中证全指医疗器械ETF</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>99.16</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0695</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>159610</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>景顺长城中证500增强策略ETF</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>98.72</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0670</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>515960</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>嘉实中证医药健康100策略ETF</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>98.82</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0620</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>014482</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>华夏融盛可持续一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>92.90</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0612</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>516790</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证全指医疗保健ETF</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>98.06</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0555</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>159891</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>建信中证全指医疗保健设备与服务ETF</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>98.79</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0482</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>014603</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>嘉实中证医疗指数C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>94.63</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0456</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>501007</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>汇添富中证互联网医疗主题指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0385</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>011402</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>汇添富成长精选混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>86.37</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0350</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>159968</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>博时中证500ETF</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>7.56</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>95.03</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0340</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>159877</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>南方中证全指医疗保健ETF</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>99.57</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0337</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>015043</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>西部利得时代动力混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>89.07</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0301</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>501008</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>汇添富中证互联网医疗主题指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0277</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>510590</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>平安中证500ETF</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>98.08</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0272</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>516610</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>大成中证全指医疗保健设备与服务ETF</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>97.46</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0266</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>011744</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>华夏兴源稳健一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>22.90</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0261</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>007133</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>嘉实长青竞争优势股票A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>91.19</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0258</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>159797</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>汇添富中证全指医疗器械ETF</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>98.45</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0228</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>160616</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>鹏华中证500指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0226</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>005117</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>金信价值精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>92.96</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0208</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>007386</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>浙商中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>87.04</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0185</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>002152</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>华宝核心优势灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0185</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>007005</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>中金新医药股票C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>92.07</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0184</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>159982</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>鹏华中证500ETF</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0158</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>510530</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>工银中证500ETF</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>98.67</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0130</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>501036</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>汇添富中证500指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>92.05</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0123</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>012430</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>农银汇理瑞康6个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>28.06</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0115</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>165511</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>信诚中证500指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>92.84</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0103</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>005128</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>华夏永康添福混合A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>23.69</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0101</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>561350</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>国泰中证500ETF</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>98.52</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>010992</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>西藏东财中证500指数A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>94.63</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>015044</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>西部利得时代动力混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>89.07</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>014483</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>华夏融盛可持续一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>92.90</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>501037</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>汇添富中证500指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>92.05</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>014923</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>华夏ESG可持续投资一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>90.74</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>014602</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>嘉实中证医疗指数A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>94.63</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>006818</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>安信盈利驱动股票A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>88.09</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>007943</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>富安达中证 500 指数增强</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>78.45</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>515530</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>泰康中证500ETF</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>96.67</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>006819</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>安信盈利驱动股票C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>88.09</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>010993</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>西藏东财中证500指数C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>94.63</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>159935</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>景顺长城中证500ETF</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>98.76</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>660011</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>农银中证500指数</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>94.80</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>006938</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>鹏华中证500指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>007134</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>嘉实长青竞争优势股票C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>91.19</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>006231</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>国融融君灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>59.86</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>159999</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>永赢中证500ETF</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>96.56</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>006611</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>人保中证500指数</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>93.30</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>005118</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>金信价值精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>92.96</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>515550</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>中融中证500ETF</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>510550</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>方正富邦中证500ETF</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>96.81</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>013119</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>信诚中证500指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>92.84</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>016461</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>华宝核心优势灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>006232</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>国融融君灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>59.86</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>960014</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>汇添富民营活力混合 O</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>7.58</t>
+        </is>
+      </c>
+      <c r="G81" t="n">
+        <v>0</v>
+      </c>
+      <c r="H81" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>015067</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>华夏永康添福混合C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>23.69</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G82" t="n">
+        <v>0</v>
+      </c>
+      <c r="H82" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2642,7 +6795,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3304,7 +7457,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4004,7 +8157,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4438,7 +8591,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5822,7 +9975,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7472,7 +11625,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8545,1010 +12698,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H26"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>960014</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>汇添富民营活力混合型证券投资基金 O</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>54.13</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.76</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.19</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>2.2680</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>470009</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>汇添富民营活力混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>54.13</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>94.76</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.19</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>2.2680</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>450003</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>富兰克林国海潜力组合混合A 人民币</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>30.85</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>93.92</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4.50</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>1.3882</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>960021</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>富兰克林国海潜力组合混合H 人民币</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>30.85</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>93.92</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>4.50</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>1.3882</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>257020</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>国联安精选混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>14.30</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>90.96</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>7.98</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>1.1411</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>005358</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>东方阿尔法精选灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>14.48</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>94.67</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>6.62</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.9586</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>512170</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>华宝中证医疗ETF</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>12.82</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>98.94</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>3.22</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.4128</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>162412</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>华宝中证医疗指数</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>9.46</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>94.23</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>3.06</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.2895</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>000059</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>国联安中证医药100指数A</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>13.53</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>92.64</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>1.75</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.2368</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>450001</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>国富中国收益混合</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>6.22</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>64.26</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>3.49</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.2171</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>005359</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>东方阿尔法精选灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>1.60</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>94.67</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>6.62</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.1059</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>000417</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>国联安新精选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>4.07</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>33.24</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0814</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>502056</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>广发中证医疗指数（LOF）A</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>1.67</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>93.47</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>3.06</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0511</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>501007</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>汇添富中证互联网医疗主题指数（LOF）A</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0.84</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>94.26</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>4.98</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0418</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>009881</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>广发中证医疗指数（LOF）C</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0.73</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>93.47</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>3.06</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0223</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>001730</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>兴银大健康灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0.45</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>92.13</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>4.65</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.0209</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>005955</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>易方达鑫转添利混合A</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>0.73</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>29.82</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>2.51</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.0183</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>001563</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>华富健康文娱灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>0.27</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>91.42</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>3.87</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.0104</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>005088</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>嘉实新添辉定期开放灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>0.60</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>42.11</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>1.68</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.0101</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>501008</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>汇添富中证互联网医疗主题指数（LOF）C</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>0.17</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>94.26</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>4.98</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.0085</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>010434</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>红土创新医疗保健股票</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>0.11</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>50.44</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>3.59</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.0039</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>410006</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>华富策略精选混合</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>0.13</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>71.84</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>2.97</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.0039</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>005956</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>易方达鑫转添利混合C</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>0.07</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>29.82</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>2.51</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.0018</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>006569</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>国联安中证医药100指数C</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>0.09</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>92.64</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>1.75</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0.0016</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>005089</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>嘉实新添辉定期开放灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>42.11</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>1.68</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>0.0003</t>
-        </is>
-      </c>
-      <c r="H26" t="n">
-        <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>